--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T11:08:19+00:00</t>
+    <t>2024-03-28T15:28:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:28:05+00:00</t>
+    <t>2024-04-02T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T07:24:27+00:00</t>
+    <t>2024-04-02T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T13:59:53+00:00</t>
+    <t>2024-04-03T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T07:12:34+00:00</t>
+    <t>2024-04-03T15:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:04:53+00:00</t>
+    <t>2024-04-04T12:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:58:54+00:00</t>
+    <t>2024-04-05T07:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-05T07:48:28+00:00</t>
+    <t>2024-04-08T12:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/issues96/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T12:44:22+00:00</t>
+    <t>2024-04-08T13:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
